--- a/Dados2.xlsx
+++ b/Dados2.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="C3" t="n">
         <v>1.6</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="n">
         <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
